--- a/data/material_cls.xlsx
+++ b/data/material_cls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
